--- a/Music/Dance.xlsx
+++ b/Music/Dance.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Disco</t>
   </si>
@@ -93,27 +94,12 @@
     <t>IDM?</t>
   </si>
   <si>
-    <t>Waporwave</t>
-  </si>
-  <si>
-    <t>Folk Metal</t>
-  </si>
-  <si>
-    <t>Nu Disco</t>
-  </si>
-  <si>
-    <t>Jungle</t>
-  </si>
-  <si>
     <t>Jumpstyle</t>
   </si>
   <si>
     <t>House</t>
   </si>
   <si>
-    <t>Reggaeton</t>
-  </si>
-  <si>
     <t>Hip Hop</t>
   </si>
   <si>
@@ -169,6 +155,132 @@
   </si>
   <si>
     <t>Mariachi</t>
+  </si>
+  <si>
+    <t>Column52</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Folk</t>
+  </si>
+  <si>
+    <t>Pirates</t>
+  </si>
+  <si>
+    <t>Reggae</t>
+  </si>
+  <si>
+    <t>Video Game</t>
+  </si>
+  <si>
+    <t>Trance</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>Paulius Jurgelevicius - The field of dreams.mp3</t>
+  </si>
+  <si>
+    <t>El-Corleo - Tambul.ogg</t>
+  </si>
+  <si>
+    <t>Ellary - 3HR MT_3</t>
+  </si>
+  <si>
+    <t>Snabisch - The Old Song</t>
+  </si>
+  <si>
+    <t>RevampedPRO - Intro Theme</t>
+  </si>
+  <si>
+    <t>Ellary - Little Lily Swing</t>
+  </si>
+  <si>
+    <t>Xenocity - Takeover - Abyss</t>
+  </si>
+  <si>
+    <t>Matthew Pablo - Blackmoor Tides</t>
+  </si>
+  <si>
+    <t>RevampedPRO - Adventure</t>
+  </si>
+  <si>
+    <t>Sudocolon - Three-Point-Shot</t>
+  </si>
+  <si>
+    <t>Synth</t>
+  </si>
+  <si>
+    <t>Xenocity - Sidekick</t>
+  </si>
+  <si>
+    <t>Alexander Ehlers - Doomed</t>
+  </si>
+  <si>
+    <t>Xenocity - Digital Acid</t>
+  </si>
+  <si>
+    <t>Yubatake - Armadillo</t>
+  </si>
+  <si>
+    <t>Jazz/Blues</t>
+  </si>
+  <si>
+    <t>Matthew Pablo - A Conversation with Saul</t>
+  </si>
+  <si>
+    <t>Yubatake - El rincón</t>
+  </si>
+  <si>
+    <t>Barocue/Folk/Quartet</t>
+  </si>
+  <si>
+    <t>Honky Tonk</t>
+  </si>
+  <si>
+    <t>Metal Core/Hard Rock</t>
+  </si>
+  <si>
+    <t>Smooth Jazz</t>
+  </si>
+  <si>
+    <t>ElectroSwing</t>
+  </si>
+  <si>
+    <t>Chiptune</t>
+  </si>
+  <si>
+    <t>Calypso</t>
+  </si>
+  <si>
+    <t>Detroit House/Techno</t>
+  </si>
+  <si>
+    <t>Breakbeat</t>
+  </si>
+  <si>
+    <t>Chill out / Chill House</t>
   </si>
 </sst>
 </file>
@@ -220,12 +332,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -246,6 +387,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,19 +424,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G58" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G58"/>
-  <sortState ref="A2:G44">
-    <sortCondition ref="A1:A58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P53" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:P53"/>
+  <sortState ref="A2:P55">
+    <sortCondition ref="C1:C55"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Music Genre" dataDxfId="0"/>
-    <tableColumn id="2" name="Column1"/>
-    <tableColumn id="3" name="Column2"/>
-    <tableColumn id="4" name="Column3"/>
-    <tableColumn id="5" name="Column4"/>
-    <tableColumn id="6" name="Column5"/>
-    <tableColumn id="7" name="Column6"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Music Genre" dataDxfId="17"/>
+    <tableColumn id="16" name="Column1" dataDxfId="0"/>
+    <tableColumn id="15" name="Using" dataDxfId="1"/>
+    <tableColumn id="2" name="Column13" dataDxfId="16"/>
+    <tableColumn id="3" name="Column2" dataDxfId="15"/>
+    <tableColumn id="4" name="Column3" dataDxfId="14"/>
+    <tableColumn id="5" name="Column4" dataDxfId="13"/>
+    <tableColumn id="6" name="Column5" dataDxfId="12"/>
+    <tableColumn id="8" name="Column52" dataDxfId="8"/>
+    <tableColumn id="7" name="Column6" dataDxfId="11"/>
+    <tableColumn id="9" name="Column7" dataDxfId="7"/>
+    <tableColumn id="10" name="Column8" dataDxfId="6"/>
+    <tableColumn id="11" name="Column9" dataDxfId="5"/>
+    <tableColumn id="12" name="Column10" dataDxfId="4"/>
+    <tableColumn id="13" name="Column11" dataDxfId="3"/>
+    <tableColumn id="14" name="Column12" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,255 +748,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="11" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="11:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="11:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="11:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="11:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="11:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,4 +1469,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Music/Dance.xlsx
+++ b/Music/Dance.xlsx
@@ -304,12 +304,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -324,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -335,11 +341,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -389,27 +422,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -424,28 +436,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P53" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P53" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:P53"/>
   <sortState ref="A2:P55">
     <sortCondition ref="C1:C55"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Music Genre" dataDxfId="17"/>
-    <tableColumn id="16" name="Column1" dataDxfId="0"/>
-    <tableColumn id="15" name="Using" dataDxfId="1"/>
-    <tableColumn id="2" name="Column13" dataDxfId="16"/>
-    <tableColumn id="3" name="Column2" dataDxfId="15"/>
-    <tableColumn id="4" name="Column3" dataDxfId="14"/>
-    <tableColumn id="5" name="Column4" dataDxfId="13"/>
-    <tableColumn id="6" name="Column5" dataDxfId="12"/>
-    <tableColumn id="8" name="Column52" dataDxfId="8"/>
-    <tableColumn id="7" name="Column6" dataDxfId="11"/>
-    <tableColumn id="9" name="Column7" dataDxfId="7"/>
-    <tableColumn id="10" name="Column8" dataDxfId="6"/>
-    <tableColumn id="11" name="Column9" dataDxfId="5"/>
-    <tableColumn id="12" name="Column10" dataDxfId="4"/>
-    <tableColumn id="13" name="Column11" dataDxfId="3"/>
-    <tableColumn id="14" name="Column12" dataDxfId="2"/>
+    <tableColumn id="1" name="Music Genre" dataDxfId="15"/>
+    <tableColumn id="16" name="Column1" dataDxfId="14"/>
+    <tableColumn id="15" name="Using" dataDxfId="13"/>
+    <tableColumn id="2" name="Column13" dataDxfId="12"/>
+    <tableColumn id="3" name="Column2" dataDxfId="11"/>
+    <tableColumn id="4" name="Column3" dataDxfId="10"/>
+    <tableColumn id="5" name="Column4" dataDxfId="9"/>
+    <tableColumn id="6" name="Column5" dataDxfId="8"/>
+    <tableColumn id="8" name="Column52" dataDxfId="7"/>
+    <tableColumn id="7" name="Column6" dataDxfId="6"/>
+    <tableColumn id="9" name="Column7" dataDxfId="5"/>
+    <tableColumn id="10" name="Column8" dataDxfId="4"/>
+    <tableColumn id="11" name="Column9" dataDxfId="3"/>
+    <tableColumn id="12" name="Column10" dataDxfId="2"/>
+    <tableColumn id="13" name="Column11" dataDxfId="1"/>
+    <tableColumn id="14" name="Column12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -750,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -815,39 +827,39 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -935,21 +947,28 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -968,39 +987,39 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1019,39 +1038,39 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:16" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
